--- a/2017/ML/roc/roc_svmP.xlsx
+++ b/2017/ML/roc/roc_svmP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jg_te\PycharmProjects\DDoS_Detection\2017\ML\roc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466BEF93-643F-424B-852B-E7E447B9744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49CF54B-432A-4395-B106-AA9D96603687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="27">
   <si>
     <t>Time(s)</t>
   </si>
@@ -111,6 +111,15 @@
   <si>
     <t>0:01:56</t>
   </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,12 +189,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -194,6 +214,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="Q11" sqref="Q11:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +531,7 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,8 +571,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -592,8 +624,20 @@
       <c r="N2">
         <v>0.62356022155785695</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>75.092083996552788</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>60.117954409294924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -636,8 +680,20 @@
       <c r="N3">
         <v>0.62811652645484195</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O12" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>75.319154172229432</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P12" si="1">100*I3/(I3+M3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q12" si="2">100*I3/(I3+L3)</f>
+        <v>60.409563050504552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -680,8 +736,20 @@
       <c r="N4">
         <v>0.63280261419731598</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>75.554129238706807</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>60.712443712681754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -724,8 +792,20 @@
       <c r="N5">
         <v>0.62285105100929306</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>75.056864512252702</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>60.072819702538382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -768,8 +848,20 @@
       <c r="N6">
         <v>0.62768082690212901</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>75.297381078321621</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>60.38155551938604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -812,8 +904,20 @@
       <c r="N7">
         <v>0.62768082690212901</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>75.297381078321621</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>60.38155551938604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -856,8 +960,20 @@
       <c r="N8">
         <v>0.43255695381121201</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -900,8 +1016,20 @@
       <c r="N9">
         <v>0.43255695381121201</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -944,24 +1072,36 @@
       <c r="N10">
         <v>0.43255695381121201</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -1017,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="Q2" sqref="Q2:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1168,7 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,8 +1208,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1112,8 +1261,20 @@
       <c r="N2">
         <v>0.62491367123224095</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>75.150238446916774</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>60.192536623279516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1156,8 +1317,20 @@
       <c r="N3">
         <v>0.62787086606873799</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>75.297759152767142</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>60.382041767004857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1200,8 +1373,20 @@
       <c r="N4">
         <v>0.63258939952258397</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>75.534347964307869</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>60.686901750731536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1244,8 +1429,20 @@
       <c r="N5">
         <v>0.61698764745417001</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>74.757681933290371</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>59.690432984058226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1288,8 +1485,20 @@
       <c r="N6">
         <v>0.62593339358965405</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>75.201042316449971</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>60.257748712241337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1332,8 +1541,20 @@
       <c r="N7">
         <v>0.627078263690931</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>75.258163120959949</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>60.331132684807635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1376,8 +1597,20 @@
       <c r="N8">
         <v>0.43283505990868798</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1420,8 +1653,20 @@
       <c r="N9">
         <v>0.43283505990868798</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1463,6 +1708,18 @@
       </c>
       <c r="N10">
         <v>0.41988458596954698</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1472,15 +1729,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="Q2" sqref="Q2:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1520,8 +1777,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1564,8 +1830,20 @@
       <c r="N2">
         <v>0.62298083385478198</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>75.059943214918661</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>60.076764127004381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1608,8 +1886,20 @@
       <c r="N3">
         <v>0.62785696076386399</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>75.302839213756187</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>60.388575601043961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1652,8 +1942,20 @@
       <c r="N4">
         <v>0.63126376045794796</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>75.473478133526541</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>60.608356358378643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1696,8 +1998,20 @@
       <c r="N5">
         <v>0.61566664349115796</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>74.698523129500799</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>59.615038062721908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1740,8 +2054,20 @@
       <c r="N6">
         <v>0.62330992607012903</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>75.076287066313768</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>60.097707075170618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1784,8 +2110,20 @@
       <c r="N7">
         <v>0.62749078773552103</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>75.284544344633105</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>60.365047739288251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1828,8 +2166,20 @@
       <c r="N8">
         <v>0.432658926046953</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1872,8 +2222,20 @@
       <c r="N9">
         <v>0.432658926046953</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1916,8 +2278,20 @@
       <c r="N10">
         <v>0.432658926046953</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
   </sheetData>
@@ -1927,15 +2301,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="Q2" sqref="Q2:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1975,8 +2349,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2019,8 +2402,20 @@
       <c r="N2">
         <v>0.62274907877355201</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>75.049355617956863</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>60.063200145242568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2063,8 +2458,20 @@
       <c r="N3">
         <v>0.62747224732902196</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>75.284530344265576</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>60.365029736953716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2107,8 +2514,20 @@
       <c r="N4">
         <v>0.63039699645414704</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>75.430899018345173</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>60.553458621696095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2151,8 +2570,20 @@
       <c r="N5">
         <v>0.61456812440612696</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>74.645469541328595</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>59.547484457244046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2195,8 +2626,20 @@
       <c r="N6">
         <v>0.62166910009501897</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>74.995787854930668</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>59.994608635984903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2239,8 +2682,20 @@
       <c r="N7">
         <v>0.62201209761524001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>75.012792504052243</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>60.016376081115531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2283,8 +2738,20 @@
       <c r="N8">
         <v>0.41449859788175802</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2327,8 +2794,20 @@
       <c r="N9">
         <v>0.41113351410229598</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2370,6 +2849,18 @@
       </c>
       <c r="N10">
         <v>0.41110570349254899</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2379,15 +2870,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N1"/>
+      <selection activeCell="M17" sqref="M17:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2427,8 +2918,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2471,8 +2971,20 @@
       <c r="N2">
         <v>0.62792185218660901</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>75.296811240975643</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>60.380822647990762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2515,8 +3027,20 @@
       <c r="N3">
         <v>0.63243644116897202</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>75.523180443237237</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>60.672485617932949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2559,8 +3083,20 @@
       <c r="N4">
         <v>0.79160119585621902</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>84.476668910870572</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>99.997547817557631</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>73.126513045817262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2603,8 +3139,20 @@
       <c r="N5">
         <v>0.60283668219425701</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>74.063311599861976</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>58.809956447751723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2647,8 +3195,20 @@
       <c r="N6">
         <v>0.61356694245521304</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>74.585963767828773</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>59.471783229871029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2691,8 +3251,20 @@
       <c r="N7">
         <v>0.61446615217038603</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>74.630097878038299</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>59.52792226433823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2735,8 +3307,20 @@
       <c r="N8">
         <v>0.43294166724605398</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2779,8 +3363,20 @@
       <c r="N9">
         <v>0.43294166724605398</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2823,11 +3419,23 @@
       <c r="N10">
         <v>0.43294166724605398</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
     </row>
   </sheetData>
@@ -2837,10 +3445,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,7 +3457,7 @@
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2889,8 +3497,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2946,8 +3563,20 @@
         <f>AVERAGE('Test 0'!N2,'Test 1'!N2,'Test 2'!N2,'Test 3'!N2,'Test 4'!N2)</f>
         <v>0.6244251315210082</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>AVERAGE('Test 0'!O2,'Test 1'!O2,'Test 2'!O2,'Test 3'!O2,'Test 4'!O2)</f>
+        <v>75.129686503464157</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE('Test 0'!P2,'Test 1'!P2,'Test 2'!P2,'Test 3'!P2,'Test 4'!P2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE('Test 0'!Q2,'Test 1'!Q2,'Test 2'!Q2,'Test 3'!Q2,'Test 4'!Q2)</f>
+        <v>60.166255590562436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3003,8 +3632,20 @@
         <f>AVERAGE('Test 0'!N3,'Test 1'!N3,'Test 2'!N3,'Test 3'!N3,'Test 4'!N3)</f>
         <v>0.62875060835708751</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>AVERAGE('Test 0'!O3,'Test 1'!O3,'Test 2'!O3,'Test 3'!O3,'Test 4'!O3)</f>
+        <v>75.345492665251115</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE('Test 0'!P3,'Test 1'!P3,'Test 2'!P3,'Test 3'!P3,'Test 4'!P3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE('Test 0'!Q3,'Test 1'!Q3,'Test 2'!Q3,'Test 3'!Q3,'Test 4'!Q3)</f>
+        <v>60.443539154688004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3060,8 +3701,20 @@
         <f>AVERAGE('Test 0'!N4,'Test 1'!N4,'Test 2'!N4,'Test 3'!N4,'Test 4'!N4)</f>
         <v>0.66373079329764284</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f>AVERAGE('Test 0'!O4,'Test 1'!O4,'Test 2'!O4,'Test 3'!O4,'Test 4'!O4)</f>
+        <v>77.293904653151387</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE('Test 0'!P4,'Test 1'!P4,'Test 2'!P4,'Test 3'!P4,'Test 4'!P4)</f>
+        <v>99.999509563511523</v>
+      </c>
+      <c r="Q4">
+        <f>AVERAGE('Test 0'!Q4,'Test 1'!Q4,'Test 2'!Q4,'Test 3'!Q4,'Test 4'!Q4)</f>
+        <v>63.137534697861057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3117,8 +3770,20 @@
         <f>AVERAGE('Test 0'!N5,'Test 1'!N5,'Test 2'!N5,'Test 3'!N5,'Test 4'!N5)</f>
         <v>0.61458202971100095</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f>AVERAGE('Test 0'!O5,'Test 1'!O5,'Test 2'!O5,'Test 3'!O5,'Test 4'!O5)</f>
+        <v>74.644370143246903</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE('Test 0'!P5,'Test 1'!P5,'Test 2'!P5,'Test 3'!P5,'Test 4'!P5)</f>
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <f>AVERAGE('Test 0'!Q5,'Test 1'!Q5,'Test 2'!Q5,'Test 3'!Q5,'Test 4'!Q5)</f>
+        <v>59.547146330862859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3174,8 +3839,20 @@
         <f>AVERAGE('Test 0'!N6,'Test 1'!N6,'Test 2'!N6,'Test 3'!N6,'Test 4'!N6)</f>
         <v>0.62243203782242884</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f>AVERAGE('Test 0'!O6,'Test 1'!O6,'Test 2'!O6,'Test 3'!O6,'Test 4'!O6)</f>
+        <v>75.031292416768963</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGE('Test 0'!P6,'Test 1'!P6,'Test 2'!P6,'Test 3'!P6,'Test 4'!P6)</f>
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <f>AVERAGE('Test 0'!Q6,'Test 1'!Q6,'Test 2'!Q6,'Test 3'!Q6,'Test 4'!Q6)</f>
+        <v>60.040680634530794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3231,8 +3908,20 @@
         <f>AVERAGE('Test 0'!N7,'Test 1'!N7,'Test 2'!N7,'Test 3'!N7,'Test 4'!N7)</f>
         <v>0.62374562562284142</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f>AVERAGE('Test 0'!O7,'Test 1'!O7,'Test 2'!O7,'Test 3'!O7,'Test 4'!O7)</f>
+        <v>75.096595785201046</v>
+      </c>
+      <c r="P7">
+        <f>AVERAGE('Test 0'!P7,'Test 1'!P7,'Test 2'!P7,'Test 3'!P7,'Test 4'!P7)</f>
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <f>AVERAGE('Test 0'!Q7,'Test 1'!Q7,'Test 2'!Q7,'Test 3'!Q7,'Test 4'!Q7)</f>
+        <v>60.124406857787143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3288,8 +3977,20 @@
         <f>AVERAGE('Test 0'!N8,'Test 1'!N8,'Test 2'!N8,'Test 3'!N8,'Test 4'!N8)</f>
         <v>0.42909824097893301</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f>AVERAGE('Test 0'!O8,'Test 1'!O8,'Test 2'!O8,'Test 3'!O8,'Test 4'!O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>AVERAGE('Test 0'!P8,'Test 1'!P8,'Test 2'!P8,'Test 3'!P8,'Test 4'!P8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f>AVERAGE('Test 0'!Q8,'Test 1'!Q8,'Test 2'!Q8,'Test 3'!Q8,'Test 4'!Q8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3345,8 +4046,20 @@
         <f>AVERAGE('Test 0'!N9,'Test 1'!N9,'Test 2'!N9,'Test 3'!N9,'Test 4'!N9)</f>
         <v>0.42842522422304069</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f>AVERAGE('Test 0'!O9,'Test 1'!O9,'Test 2'!O9,'Test 3'!O9,'Test 4'!O9)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>AVERAGE('Test 0'!P9,'Test 1'!P9,'Test 2'!P9,'Test 3'!P9,'Test 4'!P9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="e">
+        <f>AVERAGE('Test 0'!Q9,'Test 1'!Q9,'Test 2'!Q9,'Test 3'!Q9,'Test 4'!Q9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3402,11 +4115,23 @@
         <f>AVERAGE('Test 0'!N10,'Test 1'!N10,'Test 2'!N10,'Test 3'!N10,'Test 4'!N10)</f>
         <v>0.42582956731326294</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f>AVERAGE('Test 0'!O10,'Test 1'!O10,'Test 2'!O10,'Test 3'!O10,'Test 4'!O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGE('Test 0'!P10,'Test 1'!P10,'Test 2'!P10,'Test 3'!P10,'Test 4'!P10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="e">
+        <f>AVERAGE('Test 0'!Q10,'Test 1'!Q10,'Test 2'!Q10,'Test 3'!Q10,'Test 4'!Q10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N13" s="5"/>
     </row>
   </sheetData>
